--- a/examples/RcExample/RcExample.jl/data/RcExampleData.xlsx
+++ b/examples/RcExample/RcExample.jl/data/RcExampleData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t xml:space="preserve">ts</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t xml:space="preserve">first discharge – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This row will be ignored</t>
   </si>
   <si>
     <t xml:space="preserve">second discharge</t>
@@ -104,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,6 +131,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -179,7 +192,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,6 +222,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,7 +363,7 @@
   </sheetPr>
   <dimension ref="A1:B2023"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -16556,10 +16573,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:ALJ4"/>
+  <dimension ref="A1:ALJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17604,28 +17621,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>5</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -17634,19 +17644,42 @@
         <v>14</v>
       </c>
       <c r="D4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E5" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F5" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -17665,7 +17698,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17677,17 +17710,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -17703,7 +17736,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>0.5</v>
       </c>
       <c r="B2" s="4"/>
@@ -17714,26 +17747,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
+      <c r="G3" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="H3" s="1"/>
     </row>
